--- a/data/Life Satisfaction/life_satisfaction.xlsx
+++ b/data/Life Satisfaction/life_satisfaction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanropovik/Library/Mobile Documents/com~apple~CloudDocs/MANUSCRIPTS/ongoing/2021 Forecasting Collaborative project/forecastingCollaborativeAnalysis/data/Life Satisfaction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1074EE-29D6-384F-BC8B-8B65FD16B99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2740D4-B1D1-DD43-9544-8ECC6C544280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,18 @@
     <sheet name="enter your estimates here!" sheetId="3" r:id="rId1"/>
     <sheet name="past data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1894,7 +1905,7 @@
   <dimension ref="A23:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
